--- a/results/mp/logistic/corona/confidence/84/topk-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/topk-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,60 +58,63 @@
     <t>negative</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>join</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
@@ -121,10 +124,10 @@
     <t>hope</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
   </si>
   <si>
     <t>help</t>
@@ -491,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -502,7 +505,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -560,13 +563,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7328767123287672</v>
+        <v>0.7191780821917808</v>
       </c>
       <c r="C3">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D3">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -578,19 +581,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K3">
-        <v>0.9491525423728814</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -602,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -610,13 +613,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3862433862433862</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C4">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D4">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -628,19 +631,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9130434782608695</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -652,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -660,13 +663,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3294573643410852</v>
+        <v>0.3372093023255814</v>
       </c>
       <c r="C5">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D5">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -678,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -702,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -710,13 +713,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2080536912751678</v>
+        <v>0.174496644295302</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -728,19 +731,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -752,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -760,13 +763,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1361111111111111</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="C7">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D7">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -778,19 +781,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K7">
-        <v>0.8459530026109661</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L7">
-        <v>324</v>
+        <v>67</v>
       </c>
       <c r="M7">
-        <v>324</v>
+        <v>67</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -802,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -810,13 +813,13 @@
         <v>19</v>
       </c>
       <c r="K8">
-        <v>0.8113207547169812</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L8">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="M8">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -828,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -836,13 +839,13 @@
         <v>20</v>
       </c>
       <c r="K9">
-        <v>0.8103448275862069</v>
+        <v>0.804177545691906</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>308</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>308</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -854,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -862,25 +865,25 @@
         <v>21</v>
       </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L10">
+        <v>113</v>
+      </c>
+      <c r="M10">
+        <v>113</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>29</v>
-      </c>
-      <c r="M10">
-        <v>29</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -888,13 +891,13 @@
         <v>22</v>
       </c>
       <c r="K11">
-        <v>0.7682926829268293</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L11">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="M11">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -906,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -914,13 +917,13 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>0.765625</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -932,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -940,13 +943,13 @@
         <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7625</v>
+        <v>0.7734375</v>
       </c>
       <c r="L13">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="M13">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -958,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -966,13 +969,13 @@
         <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7605633802816901</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L14">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="M14">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -984,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -992,13 +995,13 @@
         <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7435897435897436</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L15">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M15">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1010,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1018,13 +1021,13 @@
         <v>27</v>
       </c>
       <c r="K16">
-        <v>0.7291666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="M16">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1036,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1044,13 +1047,13 @@
         <v>28</v>
       </c>
       <c r="K17">
-        <v>0.723404255319149</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L17">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M17">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1062,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1070,13 +1073,13 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.7222222222222222</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="L18">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="M18">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1088,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1096,13 +1099,13 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0.7142857142857143</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L19">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1114,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1122,13 +1125,13 @@
         <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6511627906976745</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L20">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1140,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1148,13 +1151,13 @@
         <v>32</v>
       </c>
       <c r="K21">
-        <v>0.62</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1166,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1174,13 +1177,13 @@
         <v>33</v>
       </c>
       <c r="K22">
-        <v>0.5911764705882353</v>
+        <v>0.62</v>
       </c>
       <c r="L22">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1192,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>139</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1200,13 +1203,13 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5846153846153846</v>
+        <v>0.6088235294117647</v>
       </c>
       <c r="L23">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="M23">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1218,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>27</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1226,13 +1229,13 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5815899581589958</v>
+        <v>0.6</v>
       </c>
       <c r="L24">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="M24">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1244,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>100</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1278,13 +1281,13 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5491525423728814</v>
+        <v>0.5523012552301255</v>
       </c>
       <c r="L26">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="M26">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1296,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>133</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1304,13 +1307,13 @@
         <v>38</v>
       </c>
       <c r="K27">
-        <v>0.5142857142857142</v>
+        <v>0.5457627118644067</v>
       </c>
       <c r="L27">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="M27">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1322,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>34</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1330,13 +1333,13 @@
         <v>39</v>
       </c>
       <c r="K28">
-        <v>0.4382022471910113</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L28">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M28">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1348,7 +1351,33 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>50</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29">
+        <v>0.449438202247191</v>
+      </c>
+      <c r="L29">
+        <v>40</v>
+      </c>
+      <c r="M29">
+        <v>40</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
